--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CDA6D6-5438-4AB8-8A9A-63B9BB071E40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8E04D-C2EC-4B52-B3E8-3B86C6E5F1C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>레벨 - 기믹 세팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨 - 애니메이션 타일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,6 +274,36 @@
   </si>
   <si>
     <t>전투 - Mingkies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>레벨 - 빨래줄 타고 가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 - 가시 트랩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 - 사다리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,7 +979,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>0.01</v>
@@ -967,10 +993,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>0.02</v>
@@ -981,18 +1007,18 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>0.02</v>
@@ -1003,31 +1029,31 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>53</v>
@@ -1035,7 +1061,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -1043,7 +1069,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
@@ -1051,7 +1077,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
@@ -1059,7 +1085,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -1067,7 +1093,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
@@ -1075,7 +1101,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
@@ -1084,7 +1110,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -1092,28 +1118,34 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8E04D-C2EC-4B52-B3E8-3B86C6E5F1C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D2FCC4-4E8F-4051-AD0C-23B920101AD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,6 +780,9 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1012,6 +1015,9 @@
       <c r="C21" t="s">
         <v>64</v>
       </c>
+      <c r="D21">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1034,6 +1040,9 @@
       <c r="C23" t="s">
         <v>66</v>
       </c>
+      <c r="D23">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1042,6 +1051,9 @@
       <c r="C24" t="s">
         <v>67</v>
       </c>
+      <c r="D24">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1098,6 +1110,12 @@
       <c r="C31" t="s">
         <v>57</v>
       </c>
+      <c r="D31">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43322</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -1106,7 +1124,12 @@
       <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="D32">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43322</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -1131,6 +1154,9 @@
       <c r="C35" t="s">
         <v>76</v>
       </c>
+      <c r="D35">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
@@ -1146,6 +1172,9 @@
       </c>
       <c r="C37" t="s">
         <v>61</v>
+      </c>
+      <c r="D37">
+        <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D2FCC4-4E8F-4051-AD0C-23B920101AD6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492097C-8CC1-4336-92D6-47A7F1AD50D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -304,6 +304,79 @@
   </si>
   <si>
     <t>레벨 - 사다리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - 더블 점프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - 대쉬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Melee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Bounce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>NPC, PC - 피봇이 스프라이트의 중심에 배치되지 않아서 스냅 될 때 컬리젼이 이동하는 현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC SkillValue 테이블의 대소문자 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC Animator의 Parameter의 Skillnum-&gt;StyleNum으로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC Animator의 Parameter의 HPRatio-&gt;HpRatio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC Prefeb에서 공격 마지막 Sprite의 Event 추가하여 Animation Finished를 입력 할 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC Animtor에서 공격 Animation의 StyleNum의 넘버를 해당 Skill의 Cid로 변경 할 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - NPC 스킬을 Bounce와 Range를 동시에 가지고 있을 경우 우선도 체크를 어떻게 할 것인지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefeb에 Position 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - NPC가 피격 되었을 때 뒤로 살짝 물러나게 하는 구조에 관한 문서 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,7 +1003,7 @@
         <v>48</v>
       </c>
       <c r="D14">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E14" s="4">
         <v>43322</v>
@@ -1041,7 +1114,7 @@
         <v>66</v>
       </c>
       <c r="D23">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1178,7 +1251,102 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>0.03</v>
+      </c>
       <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F37" xr:uid="{F15FEA23-80D4-4682-8C45-8A0EDFA6E03B}"/>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492097C-8CC1-4336-92D6-47A7F1AD50D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD6738-3541-479E-8A5D-8368C4381773}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -377,6 +377,45 @@
   </si>
   <si>
     <t>NPC - NPC가 피격 되었을 때 뒤로 살짝 물러나게 하는 구조에 관한 문서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>NPC - NPC가 스킬의 유형이 2가지 이상 가지고 있을 때 Idle/Walk의 상태 변환에 관한 규칙 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - NPC의 Animaion Sprite에서 데미지 플로팅 Event 추가하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -775,17 +814,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="3" max="3" width="91.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
@@ -1219,6 +1258,9 @@
       <c r="C34" t="s">
         <v>75</v>
       </c>
+      <c r="D34">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -1238,6 +1280,9 @@
       <c r="C36" t="s">
         <v>77</v>
       </c>
+      <c r="D36">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -1304,52 +1349,131 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C43" t="s">
         <v>88</v>
       </c>
+      <c r="D43">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C44" t="s">
         <v>89</v>
       </c>
+      <c r="D44">
+        <v>0.02</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43322</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C45" t="s">
         <v>90</v>
       </c>
+      <c r="D45">
+        <v>0.02</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43322</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C46" t="s">
         <v>91</v>
       </c>
+      <c r="D46">
+        <v>0.02</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43322</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
+      <c r="D47">
+        <v>0.02</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43322</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>0.02</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>0.02</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="C51" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F37" xr:uid="{F15FEA23-80D4-4682-8C45-8A0EDFA6E03B}"/>
+  <autoFilter ref="A1:F52" xr:uid="{F15FEA23-80D4-4682-8C45-8A0EDFA6E03B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD6738-3541-479E-8A5D-8368C4381773}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D5C7C-86B8-46E1-BD45-BBA54A71B1FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$68</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -417,13 +417,89 @@
   <si>
     <t>NPC - NPC의 Animaion Sprite에서 데미지 플로팅 Event 추가하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>052</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range 형태의 NPC는 Event 추가를 어떻게 처리할지 논의 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounce&gt;Range&gt;Melee
+동일 유형일 경우 데미지가 낮은 순서대로 하며 그 마저도 같을 경우 Abnormal이 없을수록 우선도가 높다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - 인식범위에 관한 문서 (특히, 인식 해제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - FX가 출력이 발사와 동시에 투사체가 나가지 않는 현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - 사망 후에 고정되있지 않고 PC를 향해 움직이는 현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +531,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +587,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,9 +929,10 @@
     <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,8 +951,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -868,7 +973,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -885,7 +990,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -896,35 +1001,35 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5">
-        <v>0.02</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>0.02</v>
       </c>
       <c r="E6" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -941,7 +1046,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -958,7 +1063,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -975,7 +1080,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -992,7 +1097,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1114,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1026,15 +1131,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1156,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1065,12 +1173,15 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1080,6 +1191,9 @@
       <c r="C17" t="s">
         <v>51</v>
       </c>
+      <c r="D17">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -1119,6 +1233,9 @@
       <c r="E20" s="4">
         <v>43322</v>
       </c>
+      <c r="F20">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1144,6 +1261,9 @@
       <c r="E22" s="4">
         <v>43322</v>
       </c>
+      <c r="F22">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1155,6 +1275,12 @@
       <c r="D23">
         <v>0.02</v>
       </c>
+      <c r="E23" s="4">
+        <v>43322</v>
+      </c>
+      <c r="F23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1174,6 +1300,9 @@
       <c r="C25" t="s">
         <v>68</v>
       </c>
+      <c r="D25">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -1182,6 +1311,9 @@
       <c r="C26" t="s">
         <v>53</v>
       </c>
+      <c r="D26">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1190,6 +1322,9 @@
       <c r="C27" t="s">
         <v>54</v>
       </c>
+      <c r="D27">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -1198,6 +1333,9 @@
       <c r="C28" t="s">
         <v>55</v>
       </c>
+      <c r="D28">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -1206,6 +1344,9 @@
       <c r="C29" t="s">
         <v>56</v>
       </c>
+      <c r="D29">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -1228,6 +1369,9 @@
       <c r="E31" s="4">
         <v>43322</v>
       </c>
+      <c r="F31">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
@@ -1242,16 +1386,22 @@
       <c r="E32" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
@@ -1262,7 +1412,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -1273,7 +1423,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -1284,7 +1434,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1295,7 +1445,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1307,7 +1457,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1318,7 +1468,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
@@ -1329,7 +1479,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -1340,15 +1490,18 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
@@ -1359,7 +1512,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
@@ -1372,8 +1525,11 @@
       <c r="E44" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -1386,8 +1542,11 @@
       <c r="E45" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
@@ -1400,8 +1559,11 @@
       <c r="E46" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
@@ -1414,8 +1576,11 @@
       <c r="E47" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
@@ -1428,8 +1593,11 @@
       <c r="E48" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>103</v>
       </c>
@@ -1442,16 +1610,22 @@
       <c r="E49" s="4">
         <v>43322</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C50" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
@@ -1459,7 +1633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
@@ -1467,13 +1641,104 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="C53" t="s">
         <v>108</v>
       </c>
+      <c r="G53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F52" xr:uid="{F15FEA23-80D4-4682-8C45-8A0EDFA6E03B}"/>
+  <autoFilter ref="A1:G68" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D5C7C-86B8-46E1-BD45-BBA54A71B1FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B803D-3318-48DA-8973-B86ADD8A216F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -493,6 +489,63 @@
   </si>
   <si>
     <t>067</t>
+  </si>
+  <si>
+    <t>UI - 인게임에서 외곽 주변이 뿌옇게 보이는 현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - 세팅된 스킬 사라지지 않게 하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - 튜토리얼 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - 기본 이동 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - 복귀 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - 복귀 불가시 배회처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - 인식 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - PC의 FX 피봇 위치 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - PC의 Fx Prefab 재 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range/Bounce를 Default값으로 두어 Melee를 예외처리 한다.
+이때, Melee를 보유 / 중복 보유 하고 있는 경우 공격 후 Move처리 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - Style Data에서 Pivot 설정 하는 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,7 +585,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -592,13 +645,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +971,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,7 +982,7 @@
     <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -937,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -952,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -961,7 +1014,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>0.01</v>
@@ -975,10 +1028,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>0.01</v>
@@ -992,10 +1045,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>0.03</v>
@@ -1003,23 +1056,23 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="7">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="8">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.02</v>
       </c>
       <c r="E6" s="4">
@@ -1031,10 +1084,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>0.01</v>
@@ -1048,10 +1101,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0.01</v>
@@ -1065,10 +1118,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>0.01</v>
@@ -1082,10 +1135,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>0.01</v>
@@ -1099,10 +1152,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>0.01</v>
@@ -1116,10 +1169,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>0.01</v>
@@ -1133,10 +1186,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>0.03</v>
@@ -1144,10 +1197,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>0.04</v>
@@ -1158,10 +1211,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>0.01</v>
@@ -1175,10 +1228,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>0.05</v>
@@ -1186,10 +1239,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>0.05</v>
@@ -1197,18 +1250,18 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>0.01</v>
@@ -1222,10 +1275,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>0.02</v>
@@ -1239,10 +1292,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>0.03</v>
@@ -1250,10 +1303,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>0.02</v>
@@ -1267,10 +1320,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>0.02</v>
@@ -1284,10 +1337,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>0.03</v>
@@ -1295,10 +1348,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>0.03</v>
@@ -1306,10 +1359,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>0.05</v>
@@ -1317,10 +1370,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>0.06</v>
@@ -1328,10 +1381,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>7.0000000000000007E-2</v>
@@ -1339,10 +1392,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>0.05</v>
@@ -1350,18 +1403,18 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>0.02</v>
@@ -1375,10 +1428,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>0.02</v>
@@ -1392,10 +1445,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>0.03</v>
@@ -1403,10 +1456,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>0.04</v>
@@ -1414,10 +1467,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>0.03</v>
@@ -1425,10 +1478,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36">
         <v>0.04</v>
@@ -1436,10 +1489,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <v>0.02</v>
@@ -1447,10 +1500,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>0.03</v>
@@ -1459,10 +1512,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>0.03</v>
@@ -1470,10 +1523,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <v>0.01</v>
@@ -1481,10 +1534,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>0.02</v>
@@ -1492,10 +1545,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>0.03</v>
@@ -1503,10 +1556,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43">
         <v>0.02</v>
@@ -1514,10 +1567,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>0.02</v>
@@ -1531,10 +1584,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <v>0.02</v>
@@ -1548,10 +1601,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>0.02</v>
@@ -1565,10 +1618,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>0.02</v>
@@ -1582,10 +1635,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <v>0.02</v>
@@ -1599,10 +1652,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>0.02</v>
@@ -1616,125 +1669,187 @@
     </row>
     <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
         <v>105</v>
       </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>106</v>
+      <c r="G52" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="D54">
+        <v>0.05</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
         <v>115</v>
-      </c>
-      <c r="C55" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60">
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61">
+        <v>0.05</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62">
+        <v>0.05</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63">
+        <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B803D-3318-48DA-8973-B86ADD8A216F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB78792-7906-440B-B434-FD11536E45CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$71</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -545,6 +545,52 @@
   </si>
   <si>
     <t>담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - 낙사에 관한 규칙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Cat_01 A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Cat_02 A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Owl A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>인호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~계속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX - 라이팅 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -968,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1677,6 +1723,12 @@
       <c r="C50" t="s">
         <v>93</v>
       </c>
+      <c r="D50">
+        <v>0.03</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43332</v>
+      </c>
       <c r="G50" s="5" t="s">
         <v>111</v>
       </c>
@@ -1702,6 +1754,12 @@
       <c r="C52" t="s">
         <v>105</v>
       </c>
+      <c r="D52">
+        <v>0.03</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43332</v>
+      </c>
       <c r="G52" s="5" t="s">
         <v>139</v>
       </c>
@@ -1716,6 +1774,9 @@
       <c r="C53" t="s">
         <v>107</v>
       </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
       <c r="G53" t="s">
         <v>110</v>
       </c>
@@ -1770,8 +1831,17 @@
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
       <c r="C59" t="s">
         <v>132</v>
+      </c>
+      <c r="D59">
+        <v>0.04</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43342</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1825,35 +1895,107 @@
       <c r="C64" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C65" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C66" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68">
+        <v>0.03</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69">
+        <v>0.03</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70">
+        <v>0.03</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G68" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}"/>
+  <autoFilter ref="A1:G71" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB78792-7906-440B-B434-FD11536E45CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8186C1-AF02-4187-A6E2-791D7C4BB591}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$73</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -570,10 +570,6 @@
     <t>069</t>
   </si>
   <si>
-    <t>인호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>~계속</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -591,6 +587,22 @@
   </si>
   <si>
     <t>상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - NPC Animation 매뉴얼 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>071</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Salamander A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>072</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +710,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,10 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
-  <dimension ref="A1:G71"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1070,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1088,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1108,10 +1124,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1229,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1271,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1288,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1299,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1310,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1335,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1346,8 +1362,11 @@
       <c r="D21">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="4">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1383,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1391,6 +1410,9 @@
       <c r="D24">
         <v>0.03</v>
       </c>
+      <c r="E24" s="4">
+        <v>43333</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1402,8 +1424,11 @@
       <c r="D25">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="4">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1414,7 +1439,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1450,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1436,7 +1461,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1447,7 +1472,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1455,7 +1480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1497,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -1500,7 +1525,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1522,7 +1547,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -1533,7 +1558,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1554,7 +1579,9 @@
       <c r="D38">
         <v>0.03</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4">
+        <v>43329</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -1566,8 +1593,11 @@
       <c r="D39">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -1578,7 +1608,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -1599,8 +1629,11 @@
       <c r="D42">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
@@ -1611,7 +1644,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -1628,7 +1661,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -1645,7 +1678,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -1662,7 +1695,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -1679,7 +1712,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1696,7 +1729,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -1726,14 +1759,14 @@
       <c r="D50">
         <v>0.03</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="9">
         <v>43332</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
@@ -1757,14 +1790,14 @@
       <c r="D52">
         <v>0.03</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="9">
         <v>43332</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
@@ -1775,13 +1808,13 @@
         <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -1795,7 +1828,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -1803,7 +1836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -1811,7 +1844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>118</v>
       </c>
@@ -1819,7 +1852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>119</v>
       </c>
@@ -1827,12 +1860,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
         <v>132</v>
@@ -1844,7 +1877,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
@@ -1855,7 +1888,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
@@ -1866,7 +1899,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
@@ -1877,7 +1910,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
@@ -1888,7 +1921,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
@@ -1899,7 +1932,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
@@ -1910,7 +1943,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
@@ -1921,7 +1954,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
@@ -1937,7 +1970,7 @@
         <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
         <v>145</v>
@@ -1954,7 +1987,7 @@
         <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
         <v>146</v>
@@ -1971,7 +2004,7 @@
         <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
         <v>147</v>
@@ -1983,19 +2016,44 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
         <v>153</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
         <v>155</v>
       </c>
-      <c r="C71" t="s">
-        <v>154</v>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G71" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}"/>
+  <autoFilter ref="A1:G73" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0.03"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8186C1-AF02-4187-A6E2-791D7C4BB591}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E597B815-FF3B-49F5-82D0-46AFA91C3C6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -548,10 +548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PC - 낙사에 관한 규칙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC - Cat_01 A.I 기본 구동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -603,6 +599,18 @@
   </si>
   <si>
     <t>072</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC/NPC - 낙사에 관한 규칙</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1032,8 +1040,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1124,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1257,18 +1265,18 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E14" s="4">
-        <v>43322</v>
+        <v>43333</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1354,10 +1362,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>0.03</v>
@@ -1402,10 +1410,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>0.03</v>
@@ -1416,16 +1424,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>0.03</v>
-      </c>
-      <c r="E25" s="4">
-        <v>43333</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -1514,51 +1519,60 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D34">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="4">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D36">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1569,35 +1583,47 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>0.03</v>
       </c>
-      <c r="E38" s="4">
-        <v>43329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E38" s="9">
+        <v>43332</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D39">
         <v>0.03</v>
       </c>
-      <c r="E39" s="4">
-        <v>43329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="9">
+        <v>43332</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -1608,7 +1634,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -1619,21 +1645,24 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D42">
         <v>0.03</v>
       </c>
       <c r="E42" s="4">
-        <v>43329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
@@ -1644,7 +1673,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -1661,7 +1690,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -1678,7 +1707,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -1695,7 +1724,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -1712,7 +1741,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1746,24 +1775,21 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="D50">
         <v>0.03</v>
       </c>
-      <c r="E50" s="9">
-        <v>43332</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>111</v>
+      <c r="E50" s="4">
+        <v>43333</v>
       </c>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1777,24 +1803,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D52">
         <v>0.03</v>
       </c>
-      <c r="E52" s="9">
-        <v>43332</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>139</v>
+      <c r="E52" s="4">
+        <v>43333</v>
       </c>
     </row>
     <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1808,7 +1831,7 @@
         <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
         <v>110</v>
@@ -1860,21 +1883,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="D59">
         <v>0.04</v>
       </c>
       <c r="E59" s="4">
-        <v>43342</v>
+        <v>43322</v>
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1921,126 +1941,123 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D64">
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D66">
         <v>0.04</v>
+      </c>
+      <c r="E66" s="4">
+        <v>43342</v>
       </c>
     </row>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D67">
         <v>0.05</v>
       </c>
+      <c r="E67" s="4">
+        <v>43334</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D68">
-        <v>0.03</v>
-      </c>
-      <c r="E68" s="4">
-        <v>43333</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D69">
-        <v>0.03</v>
-      </c>
-      <c r="E69" s="4">
-        <v>43333</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D70">
-        <v>0.03</v>
-      </c>
-      <c r="E70" s="4">
-        <v>43333</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
         <v>152</v>
-      </c>
-      <c r="B71" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
         <v>156</v>
-      </c>
-      <c r="C72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" t="s">
-        <v>157</v>
       </c>
       <c r="D73">
         <v>0.04</v>
@@ -2051,8 +2068,12 @@
     <filterColumn colId="3">
       <filters>
         <filter val="0.03"/>
+        <filter val="0.04"/>
       </filters>
     </filterColumn>
+    <sortState ref="A4:G73">
+      <sortCondition ref="D1:D73"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E597B815-FF3B-49F5-82D0-46AFA91C3C6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BBEFED-CC4F-4E25-B020-0F1B17C5663B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -1040,8 +1040,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1116,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1122,6 +1125,9 @@
       </c>
       <c r="D4">
         <v>0.03</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43336</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1254,7 +1260,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1264,8 +1270,11 @@
       <c r="D13">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="4">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1296,26 +1305,26 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>0.05</v>
+        <v>75</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -1360,7 +1369,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1424,57 +1433,66 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="D28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D29">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -1521,16 +1539,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="D33">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>77</v>
       </c>
@@ -1544,7 +1562,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -1558,7 +1576,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
@@ -1583,7 +1601,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>106</v>
       </c>
@@ -1645,7 +1663,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
@@ -1803,7 +1821,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
@@ -1837,18 +1855,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="D54">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1885,57 +1900,54 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="D59">
         <v>0.04</v>
       </c>
-      <c r="E59" s="4">
-        <v>43322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D60">
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D61">
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D62">
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="D63">
         <v>0.05</v>
@@ -1943,91 +1955,88 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="D64">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D65">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D66">
-        <v>0.04</v>
-      </c>
-      <c r="E66" s="4">
-        <v>43342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D67">
         <v>0.05</v>
       </c>
-      <c r="E67" s="4">
-        <v>43334</v>
-      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D69">
-        <v>0.04</v>
+        <v>0.05</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43334</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="D70">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2054,24 +2063,26 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D73">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G73" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}">
     <filterColumn colId="3">
       <filters>
-        <filter val="0.03"/>
         <filter val="0.04"/>
+        <filter val="0.05"/>
+        <filter val="0.06"/>
+        <filter val="0.07"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:G73">
+    <sortState ref="A16:G73">
       <sortCondition ref="D1:D73"/>
     </sortState>
   </autoFilter>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BBEFED-CC4F-4E25-B020-0F1B17C5663B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F95F6-771D-441E-B0F3-1C3527362911}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -611,6 +611,10 @@
   </si>
   <si>
     <t>PC/NPC - 낙사에 관한 규칙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1048,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1309,6 +1313,9 @@
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
       <c r="C16" t="s">
         <v>59</v>
       </c>
@@ -1488,6 +1495,9 @@
       <c r="A29" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
       <c r="C29" t="s">
         <v>137</v>
       </c>
@@ -1541,6 +1551,9 @@
       <c r="A33" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
       <c r="C33" t="s">
         <v>138</v>
       </c>
@@ -1859,6 +1872,9 @@
       <c r="A54" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
       <c r="C54" t="s">
         <v>142</v>
       </c>
@@ -1909,7 +1925,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>19</v>
       </c>
@@ -1920,7 +1936,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
@@ -1939,10 +1955,10 @@
         <v>52</v>
       </c>
       <c r="D62">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>32</v>
       </c>
@@ -1953,7 +1969,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>113</v>
       </c>
@@ -1967,7 +1983,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>121</v>
       </c>
@@ -1978,7 +1994,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>122</v>
       </c>
@@ -1989,7 +2005,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>123</v>
       </c>
@@ -2000,7 +2016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>124</v>
       </c>
@@ -2011,7 +2027,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
@@ -2036,7 +2052,7 @@
         <v>53</v>
       </c>
       <c r="D70">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2069,7 +2085,7 @@
         <v>54</v>
       </c>
       <c r="D73">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -2077,9 +2093,6 @@
     <filterColumn colId="3">
       <filters>
         <filter val="0.04"/>
-        <filter val="0.05"/>
-        <filter val="0.06"/>
-        <filter val="0.07"/>
       </filters>
     </filterColumn>
     <sortState ref="A16:G73">

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F95F6-771D-441E-B0F3-1C3527362911}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AFB815-9A07-443F-A223-6A63F2F09BFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,6 +615,78 @@
   </si>
   <si>
     <t>상현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>073</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - DropTable 작동 하는지 확인 (드랍율을 100%로 맞췄는데 튜브를 안떨궈요.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>074</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>075</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>077</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Caerbanoog 전투 A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Tag 전투 A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Tim 전투 A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC - Madbuddy 전투 A.I 기본 구동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14구역 - Boss 전용 맵 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 - Ailliy FX가 Idle을 시작할 때 출력되는 현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 - Ailliy FX가 On_Start가 Mid와 Under-Mid가 반대로 출력되는 현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>079</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>081</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 - Don Cena A.I 01 땡기기 스킬 구현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1041,14 +1113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1156,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1174,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1191,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1205,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1216,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1162,7 +1233,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1250,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1267,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1284,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1301,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1247,7 +1318,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1264,7 +1335,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1278,21 +1349,21 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E14" s="4">
-        <v>43333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1311,30 +1382,27 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.04</v>
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1427,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1376,12 +1444,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>0.03</v>
@@ -1390,7 +1458,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1407,7 +1475,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1424,12 +1492,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>0.03</v>
@@ -1440,24 +1508,24 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E25" s="4">
-        <v>43322</v>
+        <v>43333</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>0.04</v>
@@ -1465,10 +1533,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>0.04</v>
@@ -1476,36 +1544,27 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>0.04</v>
       </c>
-      <c r="E28" s="4">
-        <v>43342</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D29">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1513,7 +1572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +1589,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -1547,63 +1606,54 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33">
+        <v>59</v>
+      </c>
+      <c r="D33" s="6">
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D34">
-        <v>0.03</v>
-      </c>
-      <c r="E34" s="4">
-        <v>43329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35">
-        <v>0.03</v>
-      </c>
-      <c r="E35" s="4">
-        <v>43329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D36">
-        <v>0.03</v>
-      </c>
-      <c r="E36" s="4">
-        <v>43329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1614,47 +1664,35 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>0.03</v>
       </c>
-      <c r="E38" s="9">
-        <v>43332</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>0.03</v>
       </c>
-      <c r="E39" s="9">
-        <v>43332</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -1665,7 +1703,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -1676,24 +1714,21 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>0.03</v>
       </c>
       <c r="E42" s="4">
-        <v>43333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
@@ -1704,7 +1739,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -1721,7 +1756,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -1755,7 +1790,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -1772,7 +1807,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1789,7 +1824,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -1806,24 +1841,27 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="D50">
         <v>0.03</v>
       </c>
-      <c r="E50" s="4">
-        <v>43333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="9">
+        <v>43332</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
@@ -1834,24 +1872,27 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="D52">
         <v>0.03</v>
       </c>
-      <c r="E52" s="4">
-        <v>43333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="9">
+        <v>43332</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
@@ -1870,19 +1911,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D54">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -1890,7 +1931,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -1898,7 +1939,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>118</v>
       </c>
@@ -1906,7 +1947,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>119</v>
       </c>
@@ -1916,32 +1957,38 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D59">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="4">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D60">
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="D61">
         <v>0.05</v>
@@ -1949,113 +1996,137 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="D62">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="D63">
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D64">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D65">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D66">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D67">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="4">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D68">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D69">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E69" s="4">
-        <v>43334</v>
+        <v>43333</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>30</v>
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="D70">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>151</v>
       </c>
@@ -2066,7 +2137,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>155</v>
       </c>
@@ -2079,24 +2150,100 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="D73">
         <v>0.04</v>
       </c>
     </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G73" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0.04"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A16:G73">
-      <sortCondition ref="D1:D73"/>
+    <sortState ref="A2:G73">
+      <sortCondition ref="A1:A73"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AFB815-9A07-443F-A223-6A63F2F09BFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F579EE1-1E3E-44B9-B1A2-E2842DF14A6B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -687,6 +687,18 @@
   </si>
   <si>
     <t>전투 - Don Cena A.I 01 땡기기 스킬 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>082</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 - 19지역 지형의 Tilemap Collider에서 Used By Composite 끄기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,16 +1125,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
@@ -1133,7 +1145,7 @@
     <col min="7" max="7" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1330,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1347,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1554,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1565,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1589,7 +1601,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -1703,7 +1715,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
@@ -1739,7 +1751,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -1841,7 +1853,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5">
       <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="66">
       <c r="A52" s="3" t="s">
         <v>106</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>118</v>
       </c>
@@ -1947,7 +1959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>119</v>
       </c>
@@ -1955,7 +1967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -1972,7 +1984,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
@@ -1983,7 +1995,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
@@ -2058,7 +2070,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
@@ -2075,7 +2087,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>147</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>148</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>151</v>
       </c>
@@ -2137,7 +2149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>155</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>157</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>162</v>
       </c>
@@ -2170,7 +2182,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>164</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>165</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
         <v>166</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
         <v>177</v>
       </c>
@@ -2232,12 +2244,23 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C82" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F579EE1-1E3E-44B9-B1A2-E2842DF14A6B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11526D6-D6DF-4FA0-BB9B-8F6423F4D2F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -706,7 +706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,14 +1127,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
@@ -1145,7 +1145,7 @@
     <col min="7" max="7" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5">
+    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>104</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="66">
+    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>106</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>108</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>118</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>119</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>43342</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>121</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>147</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>148</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>151</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>155</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>157</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>162</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>164</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>165</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>166</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>167</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>177</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>178</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>180</v>
       </c>
@@ -2261,6 +2261,9 @@
       </c>
       <c r="C83" t="s">
         <v>182</v>
+      </c>
+      <c r="D83">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/빌드 통합 관리.xlsx
+++ b/DesignDocs/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11526D6-D6DF-4FA0-BB9B-8F6423F4D2F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D2739C-9CF0-4B8E-A22A-F7F15E548EBA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$83</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -1125,13 +1125,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1169,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>43322</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1394,35 +1395,38 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1534,21 +1538,24 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26">
+        <v>59</v>
+      </c>
+      <c r="D26" s="6">
         <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D27">
         <v>0.04</v>
@@ -1556,35 +1563,44 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="D28" s="6">
         <v>0.04</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>0.04</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1601,7 +1617,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
@@ -1620,24 +1636,27 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="6">
+        <v>137</v>
+      </c>
+      <c r="D33">
         <v>0.04</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="D34">
         <v>0.04</v>
@@ -1645,27 +1664,30 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="6">
+        <v>142</v>
+      </c>
+      <c r="D35">
         <v>0.04</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D36">
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1676,7 +1698,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -1690,7 +1712,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -1704,7 +1726,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>84</v>
       </c>
@@ -1715,7 +1737,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -1726,7 +1748,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -1740,7 +1762,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
@@ -1751,7 +1773,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -1768,7 +1790,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>98</v>
       </c>
@@ -1785,7 +1807,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
@@ -1802,7 +1824,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -1819,7 +1841,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>101</v>
       </c>
@@ -1836,7 +1858,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -1853,7 +1875,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>103</v>
       </c>
@@ -1875,16 +1897,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>106</v>
       </c>
@@ -1906,82 +1928,85 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" t="s">
-        <v>110</v>
+        <v>174</v>
+      </c>
+      <c r="D53">
+        <v>0.04</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D54">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>182</v>
+      </c>
+      <c r="D55">
+        <v>0.04</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>131</v>
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <v>0.05</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D59">
-        <v>0.04</v>
-      </c>
-      <c r="E59" s="4">
-        <v>43342</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2030,64 +2055,55 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D64">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+      <c r="E64" s="4">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+      <c r="G65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67">
-        <v>0.05</v>
-      </c>
-      <c r="E67" s="4">
-        <v>43334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
@@ -2104,7 +2120,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>147</v>
       </c>
@@ -2121,7 +2137,7 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>148</v>
       </c>
@@ -2138,138 +2154,130 @@
         <v>43333</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B76" t="s">
         <v>153</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
         <v>158</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C78" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C79" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C80" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C81" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C82" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C80" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C81" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83">
-        <v>0.04</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G73" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}">
-    <sortState ref="A2:G73">
-      <sortCondition ref="A1:A73"/>
+  <autoFilter ref="A1:G83" xr:uid="{DBB8A67B-E0A5-4912-AD01-1B14B7F593AF}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="~계속"/>
+        <filter val="0.04"/>
+        <filter val="0.05"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A14:G83">
+      <sortCondition ref="D1:D83"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
